--- a/Apresentacao/src/wwwroot/consultaLocais.xlsx
+++ b/Apresentacao/src/wwwroot/consultaLocais.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">idDenuncia</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">respostaPadrao</t>
   </si>
   <si>
-    <t xml:space="preserve">1000</t>
+    <t xml:space="preserve">2000</t>
   </si>
   <si>
     <t xml:space="preserve">ATUAÇÃO SOBRE IRREGULARIDADES COM MEDIDA EFETIVA</t>
@@ -62,22 +62,28 @@
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Beco do Lópes</t>
+    <t xml:space="preserve">00042020202018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largo da Abolição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
   </si>
   <si>
     <t xml:space="preserve">Abolição</t>
   </si>
   <si>
-    <t xml:space="preserve">20751040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-22.8834019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-43.302339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A equipe vistoriou o local em 20/09/2018, às 19:33 horas, onde constatou um burrinho sem rabo. A ação adotada foi a aplicação de multa. Caso a irregularidade retorne, favor registrar novo chamado 1746. A Coordenadoria de Controle Urbano agradece a confiança!</t>
+    <t xml:space="preserve">20751430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.8877508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-43.2964301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A equipe vistoriou o local em 21/09/2018, às 12:20 horas, onde constatou uma carroça de frutas. A ação adotada foi a emissão e fixação na estrutura da Notificação a Desocupação. Para realizar operação de ordenamento urbano foi aberto o processo administrativo 00042020202018 e será necessário apoio de outros órgãos públicos. Acompanhe o andamento do processo pelo site http://www2.rio.rj.gov.br/sicop/ . A Coordenadoria de Controle Urbano agradece a sua solicitação!</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -179,32 +185,34 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>43363.8145833333</v>
+        <v>43364.5138888889</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
